--- a/Data/ExtractedOutputExcel.xlsx
+++ b/Data/ExtractedOutputExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\Tao Automation Usecase\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CFD430-D567-4E29-8B61-8852EDC50428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20482362-8367-4C39-B066-7EFC962F8CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -1854,19 +1854,19 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:D37"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E7" sqref="E7"/>
+      <x:selection activeCell="H12" sqref="H12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.285156" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="32.285156" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1880,7 +1880,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5">
+    <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
@@ -1894,7 +1894,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5">
+    <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
@@ -1908,7 +1908,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:5">
+    <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
@@ -1922,7 +1922,7 @@
         <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5">
+    <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
@@ -1936,7 +1936,7 @@
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5">
+    <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
@@ -1950,7 +1950,7 @@
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:5">
+    <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
@@ -1964,7 +1964,7 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5">
+    <x:row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
@@ -1978,7 +1978,7 @@
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5">
+    <x:row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
@@ -1992,7 +1992,7 @@
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5">
+    <x:row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
@@ -2006,7 +2006,7 @@
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5">
+    <x:row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
@@ -2020,7 +2020,7 @@
         <x:v>61</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:5">
+    <x:row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
@@ -2034,7 +2034,7 @@
         <x:v>66</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:5">
+    <x:row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
@@ -2048,7 +2048,7 @@
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5">
+    <x:row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
@@ -2062,7 +2062,7 @@
         <x:v>76</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:5">
+    <x:row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
@@ -2076,7 +2076,7 @@
         <x:v>81</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:5">
+    <x:row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A16" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
@@ -2090,7 +2090,7 @@
         <x:v>86</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:5">
+    <x:row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A17" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
@@ -2104,7 +2104,7 @@
         <x:v>91</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5">
+    <x:row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A18" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
@@ -2118,7 +2118,7 @@
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:5">
+    <x:row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A19" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
@@ -2132,7 +2132,7 @@
         <x:v>101</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:5">
+    <x:row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A20" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
@@ -2146,7 +2146,7 @@
         <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:5">
+    <x:row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A21" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
@@ -2160,7 +2160,7 @@
         <x:v>113</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:5">
+    <x:row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A22" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
@@ -2174,7 +2174,7 @@
         <x:v>118</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:5">
+    <x:row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A23" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
@@ -2188,7 +2188,7 @@
         <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:5">
+    <x:row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A24" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
@@ -2202,7 +2202,7 @@
         <x:v>128</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:5">
+    <x:row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A25" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
@@ -2216,7 +2216,7 @@
         <x:v>133</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:5">
+    <x:row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A26" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
@@ -2230,7 +2230,7 @@
         <x:v>138</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:5">
+    <x:row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A27" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
@@ -2244,7 +2244,7 @@
         <x:v>143</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:5">
+    <x:row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A28" s="0" t="s">
         <x:v>227</x:v>
       </x:c>
@@ -2258,7 +2258,7 @@
         <x:v>148</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:5">
+    <x:row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A29" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
@@ -2272,7 +2272,7 @@
         <x:v>153</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:5">
+    <x:row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A30" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
@@ -2286,7 +2286,7 @@
         <x:v>158</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:5">
+    <x:row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A31" s="0" t="s">
         <x:v>230</x:v>
       </x:c>
@@ -2300,7 +2300,7 @@
         <x:v>164</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:5">
+    <x:row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A32" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
@@ -2314,7 +2314,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:5">
+    <x:row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A33" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
@@ -2328,7 +2328,7 @@
         <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:5">
+    <x:row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
@@ -2342,7 +2342,7 @@
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:5">
+    <x:row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A35" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
@@ -2356,7 +2356,7 @@
         <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:5">
+    <x:row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A36" s="0" t="s">
         <x:v>236</x:v>
       </x:c>
@@ -2370,7 +2370,7 @@
         <x:v>190</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:5">
+    <x:row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A37" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
